--- a/UseCaseIScenarij/RegistracijaIPrijavaSlužbenihLica.xlsx
+++ b/UseCaseIScenarij/RegistracijaIPrijavaSlužbenihLica.xlsx
@@ -310,12 +310,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -384,24 +396,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -720,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,26 +779,26 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -799,15 +809,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -815,29 +825,29 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="21" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -849,27 +859,27 @@
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
